--- a/ParserCodes/RD_analysis.xlsx
+++ b/ParserCodes/RD_analysis.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Result" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grammar" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Left Recursion" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Left Factoring" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FIRST Sets" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FOLLOW Sets" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Parsing Table" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Parser Code" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Recommendations" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Result" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Grammar" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Left Recursion" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Left Factoring" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="FIRST Sets" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="FOLLOW Sets" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Parsing Table" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Parser Code" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Recommendations" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -631,7 +631,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="B11" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B12" s="6" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -712,7 +712,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -754,12 +754,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Assign</t>
+          <t>arg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Assign → ID = Expr</t>
+          <t>arg → NUMBER | STRING</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Decl</t>
+          <t>args</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Decl → let ID = Expr</t>
+          <t>args → arg ("," arg)*</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -794,12 +794,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Expr</t>
+          <t>call_stmt</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Expr → Term</t>
+          <t>call_stmt → ID "(" args? ")" ";"</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -814,12 +814,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Expr</t>
+          <t>for_stmt</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Expr → Term + Expr</t>
+          <t>for_stmt → "for" ID "=" NUMBER "to" NUMBER ";"</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -834,12 +834,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Expr</t>
+          <t>program</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Expr → Term - Expr</t>
+          <t>program → stmt_list</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -854,12 +854,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Factor</t>
+          <t>stmt</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Factor → NUMBER</t>
+          <t>stmt → for_stmt</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -874,12 +874,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Factor</t>
+          <t>stmt</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Factor → ID</t>
+          <t>stmt → call_stmt</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -894,12 +894,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Factor</t>
+          <t>stmt_list</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Factor → ( Expr )</t>
+          <t>stmt_list → stmt</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -914,295 +914,15 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ForLoop</t>
+          <t>stmt_list</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ForLoop → for ID = Expr to Expr { StmtList }</t>
+          <t>stmt_list → stmt stmt_list</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>NewlineStmt</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>NewlineStmt → newline</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>PrintStmt</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>PrintStmt → print Expr</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Program</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Program → StmtList</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Stmt</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Stmt → Decl ;</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Stmt</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Stmt → Assign ;</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Stmt</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Stmt → ForLoop</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Stmt</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Stmt → PrintStmt ;</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Stmt</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Stmt → NewlineStmt ;</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>StmtList</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>StmtList → Stmt StmtList</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>StmtList</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>StmtList → ε</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Term</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Term → Factor</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Term</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Term → Factor * Term</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Term</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Term → Factor / Term</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Term</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Term → Factor % Term</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -1284,7 +1004,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1327,50 +1047,24 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="45" customHeight="1">
+    <row r="4" ht="30" customHeight="1">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Expr</t>
+          <t>stmt_list</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>Term</t>
+          <t>stmt</t>
         </is>
       </c>
       <c r="C4" s="13" t="inlineStr">
         <is>
-          <t>Expr → Term
-Expr → Term + Expr
-Expr → Term - Expr</t>
+          <t>stmt_list → stmt
+stmt_list → stmt stmt_list</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr">
-        <is>
-          <t>May require backtracking</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" s="12" t="inlineStr">
-        <is>
-          <t>Term</t>
-        </is>
-      </c>
-      <c r="B5" s="12" t="inlineStr">
-        <is>
-          <t>Factor</t>
-        </is>
-      </c>
-      <c r="C5" s="13" t="inlineStr">
-        <is>
-          <t>Term → Factor
-Term → Factor * Term
-Term → Factor / Term
-Term → Factor % Term</t>
-        </is>
-      </c>
-      <c r="D5" s="12" t="inlineStr">
         <is>
           <t>May require backtracking</t>
         </is>
@@ -1390,7 +1084,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1423,12 +1117,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Assign</t>
+          <t>arg</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>NUMBER</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1440,12 +1134,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Decl</t>
+          <t>args</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>let</t>
+          <t>NUMBER</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1457,12 +1151,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Expr</t>
+          <t>call_stmt</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>(, ID, NUMBER</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1474,12 +1168,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Factor</t>
+          <t>for_stmt</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>(, ID, NUMBER</t>
+          <t>"for"</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1491,12 +1185,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ForLoop</t>
+          <t>program</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>for</t>
+          <t>"for", ID</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1508,12 +1202,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NewlineStmt</t>
+          <t>stmt</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>newline</t>
+          <t>"for", ID</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1525,83 +1219,15 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PrintStmt</t>
+          <t>stmt_list</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>print</t>
+          <t>"for", ID</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
-        <is>
-          <t>Direct lookahead</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Program</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ID, for, let, newline, print, ε</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Uses FOLLOW set</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Stmt</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ID, for, let, newline, print</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Direct lookahead</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>StmtList</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ID, for, let, newline, print, ε</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Uses FOLLOW set</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Term</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>(, ID, NUMBER</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
         <is>
           <t>Direct lookahead</t>
         </is>
@@ -1618,7 +1244,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1651,12 +1277,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Assign</t>
+          <t>arg</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>;</t>
+          <t>(","</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1668,14 +1294,10 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Decl</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>;</t>
-        </is>
-      </c>
+          <t>args</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>No</t>
@@ -1685,12 +1307,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Expr</t>
+          <t>call_stmt</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>), ;, to, {</t>
+          <t>"for", $, ID</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1702,12 +1324,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Factor</t>
+          <t>for_stmt</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%, ), *, +, -, /, ;, to, {</t>
+          <t>"for", $, ID</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1719,12 +1341,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ForLoop</t>
+          <t>program</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>$, ID, for, let, newline, print, }</t>
+          <t>$</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1736,12 +1358,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NewlineStmt</t>
+          <t>stmt</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>;</t>
+          <t>"for", $, ID</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1753,83 +1375,15 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PrintStmt</t>
+          <t>stmt_list</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>;</t>
+          <t>$</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Program</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Stmt</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>$, ID, for, let, newline, print, }</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>StmtList</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>$, }</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Term</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>), +, -, ;, to, {</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1846,7 +1400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1869,11 +1423,6 @@
     <col width="30" customWidth="1" min="13" max="13"/>
     <col width="30" customWidth="1" min="14" max="14"/>
     <col width="30" customWidth="1" min="15" max="15"/>
-    <col width="30" customWidth="1" min="16" max="16"/>
-    <col width="30" customWidth="1" min="17" max="17"/>
-    <col width="30" customWidth="1" min="18" max="18"/>
-    <col width="30" customWidth="1" min="19" max="19"/>
-    <col width="30" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1891,104 +1440,79 @@
       </c>
       <c r="B3" s="16" t="inlineStr">
         <is>
+          <t>"("</t>
+        </is>
+      </c>
+      <c r="C3" s="16" t="inlineStr">
+        <is>
+          <t>")"</t>
+        </is>
+      </c>
+      <c r="D3" s="16" t="inlineStr">
+        <is>
+          <t>";"</t>
+        </is>
+      </c>
+      <c r="E3" s="16" t="inlineStr">
+        <is>
+          <t>"="</t>
+        </is>
+      </c>
+      <c r="F3" s="16" t="inlineStr">
+        <is>
+          <t>"for"</t>
+        </is>
+      </c>
+      <c r="G3" s="16" t="inlineStr">
+        <is>
+          <t>"to"</t>
+        </is>
+      </c>
+      <c r="H3" s="16" t="inlineStr">
+        <is>
           <t>$</t>
         </is>
       </c>
-      <c r="C3" s="16" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="D3" s="16" t="inlineStr">
-        <is>
-          <t>(</t>
-        </is>
-      </c>
-      <c r="E3" s="16" t="inlineStr">
-        <is>
-          <t>)</t>
-        </is>
-      </c>
-      <c r="F3" s="16" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="G3" s="16" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="H3" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="I3" s="16" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>(","</t>
         </is>
       </c>
       <c r="J3" s="16" t="inlineStr">
         <is>
-          <t>;</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="K3" s="16" t="inlineStr">
         <is>
-          <t>=</t>
+          <t>NUMBER</t>
         </is>
       </c>
       <c r="L3" s="16" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>STRING</t>
         </is>
       </c>
       <c r="M3" s="16" t="inlineStr">
         <is>
-          <t>NUMBER</t>
+          <t>arg)*</t>
         </is>
       </c>
       <c r="N3" s="16" t="inlineStr">
         <is>
-          <t>for</t>
+          <t>args?</t>
         </is>
       </c>
       <c r="O3" s="16" t="inlineStr">
         <is>
-          <t>let</t>
-        </is>
-      </c>
-      <c r="P3" s="16" t="inlineStr">
-        <is>
-          <t>newline</t>
-        </is>
-      </c>
-      <c r="Q3" s="16" t="inlineStr">
-        <is>
-          <t>print</t>
-        </is>
-      </c>
-      <c r="R3" s="16" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="S3" s="16" t="inlineStr">
-        <is>
-          <t>{</t>
-        </is>
-      </c>
-      <c r="T3" s="16" t="inlineStr">
-        <is>
-          <t>}</t>
+          <t>|</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="inlineStr">
         <is>
-          <t>Assign</t>
+          <t>arg</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -2000,25 +1524,20 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" s="17" t="inlineStr">
-        <is>
-          <t>Assign → ID = Expr</t>
-        </is>
-      </c>
+      <c r="K4" s="17" t="inlineStr">
+        <is>
+          <t>arg → NUMBER | STRING</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="5" t="inlineStr">
         <is>
-          <t>Decl</t>
+          <t>args</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -2030,378 +1549,156 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" s="17" t="inlineStr">
+        <is>
+          <t>args → arg ("," arg)*</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" s="17" t="inlineStr">
-        <is>
-          <t>Decl → let ID = Expr</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="5" t="inlineStr">
         <is>
-          <t>Expr</t>
+          <t>call_stmt</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" s="18" t="inlineStr">
-        <is>
-          <t>Expr → Term / Expr → Term + Expr / Expr → Term - Expr</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" s="17" t="inlineStr">
+        <is>
+          <t>call_stmt → ID "(" args? ")" ";"</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" s="18" t="inlineStr">
-        <is>
-          <t>Expr → Term / Expr → Term + Expr / Expr → Term - Expr</t>
-        </is>
-      </c>
-      <c r="M6" s="18" t="inlineStr">
-        <is>
-          <t>Expr → Term / Expr → Term + Expr / Expr → Term - Expr</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="5" t="inlineStr">
         <is>
-          <t>Factor</t>
+          <t>for_stmt</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" s="17" t="inlineStr">
-        <is>
-          <t>Factor → ( Expr )</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" s="17" t="inlineStr">
+        <is>
+          <t>for_stmt → "for" ID "=" NUMBER "to" NUMBER ";"</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" s="17" t="inlineStr">
-        <is>
-          <t>Factor → ID</t>
-        </is>
-      </c>
-      <c r="M7" s="17" t="inlineStr">
-        <is>
-          <t>Factor → NUMBER</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>ForLoop</t>
+          <t>program</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" s="17" t="inlineStr">
+        <is>
+          <t>program → stmt_list</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" s="17" t="inlineStr">
+        <is>
+          <t>program → stmt_list</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" s="17" t="inlineStr">
-        <is>
-          <t>ForLoop → for ID = Expr to Expr { StmtList }</t>
-        </is>
-      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="5" t="inlineStr">
         <is>
-          <t>NewlineStmt</t>
+          <t>stmt</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" s="17" t="inlineStr">
+        <is>
+          <t>stmt → for_stmt</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" s="17" t="inlineStr">
+        <is>
+          <t>stmt → call_stmt</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
-      <c r="P9" s="17" t="inlineStr">
-        <is>
-          <t>NewlineStmt → newline</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="5" t="inlineStr">
         <is>
-          <t>PrintStmt</t>
+          <t>stmt_list</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" s="18" t="inlineStr">
+        <is>
+          <t>stmt_list → stmt / stmt_list → stmt stmt_list</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" s="18" t="inlineStr">
+        <is>
+          <t>stmt_list → stmt / stmt_list → stmt stmt_list</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" s="17" t="inlineStr">
-        <is>
-          <t>PrintStmt → print Expr</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="5" t="inlineStr">
-        <is>
-          <t>Program</t>
-        </is>
-      </c>
-      <c r="B11" s="17" t="inlineStr">
-        <is>
-          <t>Program → StmtList</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" s="17" t="inlineStr">
-        <is>
-          <t>Program → StmtList</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" s="17" t="inlineStr">
-        <is>
-          <t>Program → StmtList</t>
-        </is>
-      </c>
-      <c r="O11" s="17" t="inlineStr">
-        <is>
-          <t>Program → StmtList</t>
-        </is>
-      </c>
-      <c r="P11" s="17" t="inlineStr">
-        <is>
-          <t>Program → StmtList</t>
-        </is>
-      </c>
-      <c r="Q11" s="17" t="inlineStr">
-        <is>
-          <t>Program → StmtList</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="5" t="inlineStr">
-        <is>
-          <t>Stmt</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" s="17" t="inlineStr">
-        <is>
-          <t>Stmt → Assign ;</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" s="17" t="inlineStr">
-        <is>
-          <t>Stmt → ForLoop</t>
-        </is>
-      </c>
-      <c r="O12" s="17" t="inlineStr">
-        <is>
-          <t>Stmt → Decl ;</t>
-        </is>
-      </c>
-      <c r="P12" s="17" t="inlineStr">
-        <is>
-          <t>Stmt → NewlineStmt ;</t>
-        </is>
-      </c>
-      <c r="Q12" s="17" t="inlineStr">
-        <is>
-          <t>Stmt → PrintStmt ;</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="5" t="inlineStr">
-        <is>
-          <t>StmtList</t>
-        </is>
-      </c>
-      <c r="B13" s="17" t="inlineStr">
-        <is>
-          <t>StmtList → ε</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" s="17" t="inlineStr">
-        <is>
-          <t>StmtList → Stmt StmtList</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" s="17" t="inlineStr">
-        <is>
-          <t>StmtList → Stmt StmtList</t>
-        </is>
-      </c>
-      <c r="O13" s="17" t="inlineStr">
-        <is>
-          <t>StmtList → Stmt StmtList</t>
-        </is>
-      </c>
-      <c r="P13" s="17" t="inlineStr">
-        <is>
-          <t>StmtList → Stmt StmtList</t>
-        </is>
-      </c>
-      <c r="Q13" s="17" t="inlineStr">
-        <is>
-          <t>StmtList → Stmt StmtList</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" s="17" t="inlineStr">
-        <is>
-          <t>StmtList → ε</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="5" t="inlineStr">
-        <is>
-          <t>Term</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" s="18" t="inlineStr">
-        <is>
-          <t>Term → Factor / Term → Factor * Term / Term → Factor / Term / Term → Factor % Term</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" s="18" t="inlineStr">
-        <is>
-          <t>Term → Factor / Term → Factor * Term / Term → Factor / Term / Term → Factor % Term</t>
-        </is>
-      </c>
-      <c r="M14" s="18" t="inlineStr">
-        <is>
-          <t>Term → Factor / Term → Factor * Term / Term → Factor / Term / Term → Factor % Term</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A1:O1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2413,7 +1710,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B188"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2636,7 +1933,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">    parse_Program()</t>
+          <t xml:space="preserve">    parse_program()</t>
         </is>
       </c>
     </row>
@@ -2663,42 +1960,42 @@
     <row r="40">
       <c r="A40" s="5" t="inlineStr">
         <is>
-          <t># Parser for Assign</t>
+          <t># Parser for arg</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>def parse_Assign():</t>
+          <t>def parse_arg():</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve">    """Parse non-terminal Assign"""</t>
+          <t xml:space="preserve">    """Parse non-terminal arg"""</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve">    match('ID')</t>
+          <t xml:space="preserve">    match('NUMBER')</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve">    match('=')</t>
+          <t xml:space="preserve">    match('|')</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve">    parse_Expr()</t>
+          <t xml:space="preserve">    match('STRING')</t>
         </is>
       </c>
     </row>
@@ -2708,1145 +2005,497 @@
     <row r="47">
       <c r="A47" s="5" t="inlineStr">
         <is>
-          <t># Parser for Decl</t>
+          <t># Parser for args</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>def parse_Decl():</t>
+          <t>def parse_args():</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve">    """Parse non-terminal Decl"""</t>
+          <t xml:space="preserve">    """Parse non-terminal args"""</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve">    match('let')</t>
+          <t xml:space="preserve">    parse_arg()</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve">    match('ID')</t>
+          <t xml:space="preserve">    match('(","')</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve">    match('=')</t>
+          <t xml:space="preserve">    match('arg)*')</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    parse_Expr()</t>
-        </is>
-      </c>
+      <c r="A53" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr"/>
+      <c r="A54" s="5" t="inlineStr">
+        <is>
+          <t># Parser for call_stmt</t>
+        </is>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" s="5" t="inlineStr">
-        <is>
-          <t># Parser for Expr</t>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>def parse_call_stmt():</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>def parse_Expr():</t>
+          <t xml:space="preserve">    """Parse non-terminal call_stmt"""</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve">    """Parse non-terminal Expr"""</t>
+          <t xml:space="preserve">    match('ID')</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t xml:space="preserve">    if lookahead in ['NUMBER', 'ID', '(']:</t>
+          <t xml:space="preserve">    match('"("')</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve">        # Expr → Term</t>
+          <t xml:space="preserve">    match('args?')</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve">        if lookahead in ['NUMBER', 'ID', '(']:</t>
+          <t xml:space="preserve">    match('")"')</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve">            parse_Term()</t>
+          <t xml:space="preserve">    match('";"')</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        # Expr → Term + Expr</t>
-        </is>
-      </c>
+      <c r="A62" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        elif lookahead in ['NUMBER', 'ID', '(']:</t>
+      <c r="A63" s="5" t="inlineStr">
+        <is>
+          <t># Parser for for_stmt</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t xml:space="preserve">            parse_Term()</t>
+          <t>def parse_for_stmt():</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t xml:space="preserve">            match('+')</t>
+          <t xml:space="preserve">    """Parse non-terminal for_stmt"""</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t xml:space="preserve">            parse_Expr()</t>
+          <t xml:space="preserve">    match('"for"')</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t xml:space="preserve">        # Expr → Term - Expr</t>
+          <t xml:space="preserve">    match('ID')</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t xml:space="preserve">        elif lookahead in ['NUMBER', 'ID', '(']:</t>
+          <t xml:space="preserve">    match('"="')</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t xml:space="preserve">            parse_Term()</t>
+          <t xml:space="preserve">    match('NUMBER')</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t xml:space="preserve">            match('-')</t>
+          <t xml:space="preserve">    match('"to"')</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t xml:space="preserve">            parse_Expr()</t>
+          <t xml:space="preserve">    match('NUMBER')</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t xml:space="preserve">        else:</t>
+          <t xml:space="preserve">    match('";"')</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            error('Unexpected token in Expr')</t>
-        </is>
-      </c>
+      <c r="A73" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr"/>
+      <c r="A74" s="5" t="inlineStr">
+        <is>
+          <t># Parser for program</t>
+        </is>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" s="5" t="inlineStr">
-        <is>
-          <t># Parser for Factor</t>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>def parse_program():</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>def parse_Factor():</t>
+          <t xml:space="preserve">    """Parse non-terminal program"""</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t xml:space="preserve">    """Parse non-terminal Factor"""</t>
+          <t xml:space="preserve">    parse_stmt_list()</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    if lookahead in ['NUMBER', 'ID', '(']:</t>
-        </is>
-      </c>
+      <c r="A78" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        # Factor → NUMBER</t>
+      <c r="A79" s="5" t="inlineStr">
+        <is>
+          <t># Parser for stmt</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t xml:space="preserve">        if lookahead in ['NUMBER']:</t>
+          <t>def parse_stmt():</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t xml:space="preserve">            match('NUMBER')</t>
+          <t xml:space="preserve">    """Parse non-terminal stmt"""</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t xml:space="preserve">        # Factor → ID</t>
+          <t xml:space="preserve">    if lookahead in ['"for"', 'ID']:</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t xml:space="preserve">        elif lookahead in ['ID']:</t>
+          <t xml:space="preserve">        # stmt → for_stmt</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t xml:space="preserve">            match('ID')</t>
+          <t xml:space="preserve">        if lookahead in ['"for"']:</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t xml:space="preserve">        # Factor → ( Expr )</t>
+          <t xml:space="preserve">            parse_for_stmt()</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t xml:space="preserve">        elif lookahead in ['(']:</t>
+          <t xml:space="preserve">        # stmt → call_stmt</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t xml:space="preserve">            match('(')</t>
+          <t xml:space="preserve">        elif lookahead in ['ID']:</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t xml:space="preserve">            parse_Expr()</t>
+          <t xml:space="preserve">            parse_call_stmt()</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t xml:space="preserve">            match(')')</t>
+          <t xml:space="preserve">        else:</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t xml:space="preserve">        else:</t>
+          <t xml:space="preserve">            error('Unexpected token in stmt')</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            error('Unexpected token in Factor')</t>
-        </is>
-      </c>
+      <c r="A91" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr"/>
+      <c r="A92" s="5" t="inlineStr">
+        <is>
+          <t># Parser for stmt_list</t>
+        </is>
+      </c>
     </row>
     <row r="93">
-      <c r="A93" s="5" t="inlineStr">
-        <is>
-          <t># Parser for ForLoop</t>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>def parse_stmt_list():</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>def parse_ForLoop():</t>
+          <t xml:space="preserve">    """Parse non-terminal stmt_list"""</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t xml:space="preserve">    """Parse non-terminal ForLoop"""</t>
+          <t xml:space="preserve">    if lookahead in ['"for"', 'ID']:</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t xml:space="preserve">    match('for')</t>
+          <t xml:space="preserve">        # stmt_list → stmt</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t xml:space="preserve">    match('ID')</t>
+          <t xml:space="preserve">        if lookahead in ['"for"', 'ID']:</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t xml:space="preserve">    match('=')</t>
+          <t xml:space="preserve">            parse_stmt()</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t xml:space="preserve">    parse_Expr()</t>
+          <t xml:space="preserve">        # stmt_list → stmt stmt_list</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t xml:space="preserve">    match('to')</t>
+          <t xml:space="preserve">        elif lookahead in ['"for"', 'ID']:</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t xml:space="preserve">    parse_Expr()</t>
+          <t xml:space="preserve">            parse_stmt()</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t xml:space="preserve">    match('{')</t>
+          <t xml:space="preserve">            parse_stmt_list()</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t xml:space="preserve">    parse_StmtList()</t>
+          <t xml:space="preserve">        else:</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t xml:space="preserve">    match('}')</t>
+          <t xml:space="preserve">            error('Unexpected token in stmt_list')</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr"/>
     </row>
-    <row r="106">
-      <c r="A106" s="5" t="inlineStr">
-        <is>
-          <t># Parser for NewlineStmt</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>def parse_NewlineStmt():</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    """Parse non-terminal NewlineStmt"""</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    match('newline')</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="5" t="inlineStr">
-        <is>
-          <t># Parser for PrintStmt</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>def parse_PrintStmt():</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    """Parse non-terminal PrintStmt"""</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    match('print')</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    parse_Expr()</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="5" t="inlineStr">
-        <is>
-          <t># Parser for Program</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>def parse_Program():</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    """Parse non-terminal Program"""</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    parse_StmtList()</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="5" t="inlineStr">
-        <is>
-          <t># Parser for Stmt</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>def parse_Stmt():</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    """Parse non-terminal Stmt"""</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    if lookahead in ['for', 'ID', 'newline', 'let', 'print']:</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        # Stmt → Decl ;</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        if lookahead in ['let']:</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            parse_Decl()</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            match(';')</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        # Stmt → Assign ;</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        elif lookahead in ['ID']:</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            parse_Assign()</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            match(';')</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        # Stmt → ForLoop</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        elif lookahead in ['for']:</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            parse_ForLoop()</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        # Stmt → PrintStmt ;</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        elif lookahead in ['print']:</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            parse_PrintStmt()</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            match(';')</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        # Stmt → NewlineStmt ;</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        elif lookahead in ['newline']:</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            parse_NewlineStmt()</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            match(';')</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        else:</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            error('Unexpected token in Stmt')</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="5" t="inlineStr">
-        <is>
-          <t># Parser for StmtList</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>def parse_StmtList():</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    """Parse non-terminal StmtList"""</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    if lookahead in ['for', 'ID', 'newline', 'let', 'print']:</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        # StmtList → Stmt StmtList</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        if lookahead in ['for', 'ID', 'newline', 'let', 'print']:</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            parse_Stmt()</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            parse_StmtList()</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        # StmtList → ε</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        elif lookahead in []:</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            pass  # ε production</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        elif lookahead in ['}', '$']:</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            pass  # ε production via FOLLOW</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        else:</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            error('Unexpected token in StmtList')</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="5" t="inlineStr">
-        <is>
-          <t># Parser for Term</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>def parse_Term():</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    """Parse non-terminal Term"""</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    if lookahead in ['NUMBER', 'ID', '(']:</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        # Term → Factor</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        if lookahead in ['NUMBER', 'ID', '(']:</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            parse_Factor()</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        # Term → Factor * Term</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        elif lookahead in ['NUMBER', 'ID', '(']:</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            parse_Factor()</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            match('*')</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            parse_Term()</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        # Term → Factor / Term</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        elif lookahead in ['NUMBER', 'ID', '(']:</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            parse_Factor()</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            match('/')</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            parse_Term()</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        # Term → Factor % Term</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        elif lookahead in ['NUMBER', 'ID', '(']:</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            parse_Factor()</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            match('%')</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            parse_Term()</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        else:</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            error('Unexpected token in Term')</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr"/>
-    </row>
   </sheetData>
-  <mergeCells count="186">
+  <mergeCells count="103">
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A186:B186"/>
     <mergeCell ref="A98:B98"/>
     <mergeCell ref="A73:B73"/>
     <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="A178:B178"/>
     <mergeCell ref="A88:B88"/>
     <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A162:B162"/>
     <mergeCell ref="A54:B54"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A172:B172"/>
     <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A164:B164"/>
     <mergeCell ref="A74:B74"/>
     <mergeCell ref="A56:B56"/>
     <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="A163:B163"/>
     <mergeCell ref="A101:B101"/>
     <mergeCell ref="A76:B76"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A85:B85"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="A140:B140"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A109:B109"/>
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A68:B68"/>
     <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="A111:B111"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A167:B167"/>
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A142:B142"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A182:B182"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A169:B169"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="A61:B61"/>
     <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="A137:B137"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A177:B177"/>
     <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A136:B136"/>
     <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A145:B145"/>
     <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A179:B179"/>
     <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="A181:B181"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A184:B184"/>
-    <mergeCell ref="A131:B131"/>
     <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A171:B171"/>
     <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A165:B165"/>
-    <mergeCell ref="A180:B180"/>
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="A155:B155"/>
     <mergeCell ref="A93:B93"/>
     <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A173:B173"/>
     <mergeCell ref="A77:B77"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A143:B143"/>
     <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="A166:B166"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A119:B119"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A168:B168"/>
     <mergeCell ref="A69:B69"/>
     <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A183:B183"/>
     <mergeCell ref="A65:B65"/>
     <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A133:B133"/>
     <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A120:B120"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A175:B175"/>
     <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A113:B113"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A185:B185"/>
     <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A106:B106"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A147:B147"/>
     <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="A170:B170"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A130:B130"/>
     <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A148:B148"/>
     <mergeCell ref="A82:B82"/>
     <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="A124:B124"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A187:B187"/>
     <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="A108:B108"/>
     <mergeCell ref="A84:B84"/>
     <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="A149:B149"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A158:B158"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="A86:B86"/>
     <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A151:B151"/>
     <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="A122:B122"/>
     <mergeCell ref="A97:B97"/>
     <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A125:B125"/>
     <mergeCell ref="A72:B72"/>
     <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A134:B134"/>
     <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A161:B161"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A127:B127"/>
     <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A176:B176"/>
     <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A114:B114"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3902,7 +2551,7 @@
     <row r="7">
       <c r="A7" s="12" t="inlineStr">
         <is>
-          <t>Found 2 case(s) that need left factoring.</t>
+          <t>Found 1 case(s) that need left factoring.</t>
         </is>
       </c>
     </row>
@@ -3944,7 +2593,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Found 15 conflict(s) in the parsing table.</t>
+          <t>Found 2 conflict(s) in the parsing table.</t>
         </is>
       </c>
     </row>

--- a/ParserCodes/RD_analysis.xlsx
+++ b/ParserCodes/RD_analysis.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Result" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Grammar" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Left Recursion" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Left Factoring" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="FIRST Sets" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="FOLLOW Sets" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Parsing Table" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Parser Code" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Recommendations" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Result" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grammar" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Left Recursion" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Left Factoring" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FIRST Sets" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FOLLOW Sets" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Parsing Table" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Parser Code" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Recommendations" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -631,7 +631,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -712,7 +712,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -759,7 +759,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>arg → NUMBER | STRING</t>
+          <t>arg → NUMBER</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>args</t>
+          <t>arg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>args → arg ("," arg)*</t>
+          <t>arg → STRING</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -794,12 +794,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>call_stmt</t>
+          <t>args</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>call_stmt → ID "(" args? ")" ";"</t>
+          <t>args → arg ("," arg)*</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -814,12 +814,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>for_stmt</t>
+          <t>call_stmt</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>for_stmt → "for" ID "=" NUMBER "to" NUMBER ";"</t>
+          <t>call_stmt → ID "(" args? ")" ";"</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -834,12 +834,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>program</t>
+          <t>for_stmt</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>program → stmt_list</t>
+          <t>for_stmt → "for" ID "=" NUMBER "to" NUMBER ";"</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -854,12 +854,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>stmt</t>
+          <t>program</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>stmt → for_stmt</t>
+          <t>program → stmt_list</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>stmt → call_stmt</t>
+          <t>stmt → for_stmt</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -894,12 +894,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>stmt_list</t>
+          <t>stmt</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>stmt_list → stmt</t>
+          <t>stmt → call_stmt</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -919,10 +919,30 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>stmt_list → stmt</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>stmt_list</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>stmt_list → stmt stmt_list</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -1122,7 +1142,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NUMBER</t>
+          <t>NUMBER, STRING</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1139,7 +1159,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NUMBER</t>
+          <t>NUMBER, STRING</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1400,7 +1420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1422,7 +1442,6 @@
     <col width="30" customWidth="1" min="12" max="12"/>
     <col width="30" customWidth="1" min="13" max="13"/>
     <col width="30" customWidth="1" min="14" max="14"/>
-    <col width="30" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1501,11 +1520,6 @@
       <c r="N3" s="16" t="inlineStr">
         <is>
           <t>args?</t>
-        </is>
-      </c>
-      <c r="O3" s="16" t="inlineStr">
-        <is>
-          <t>|</t>
         </is>
       </c>
     </row>
@@ -1526,13 +1540,16 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" s="17" t="inlineStr">
         <is>
-          <t>arg → NUMBER | STRING</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr"/>
+          <t>arg → NUMBER</t>
+        </is>
+      </c>
+      <c r="L4" s="17" t="inlineStr">
+        <is>
+          <t>arg → STRING</t>
+        </is>
+      </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="5" t="inlineStr">
@@ -1554,10 +1571,13 @@
           <t>args → arg ("," arg)*</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" s="17" t="inlineStr">
+        <is>
+          <t>args → arg ("," arg)*</t>
+        </is>
+      </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="5" t="inlineStr">
@@ -1582,7 +1602,6 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="5" t="inlineStr">
@@ -1607,7 +1626,6 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
@@ -1636,7 +1654,6 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="5" t="inlineStr">
@@ -1665,7 +1682,6 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="5" t="inlineStr">
@@ -1694,11 +1710,10 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1710,7 +1725,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1981,423 +1996,466 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve">    match('NUMBER')</t>
+          <t xml:space="preserve">    if lookahead in ['STRING', 'NUMBER']:</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve">    match('|')</t>
+          <t xml:space="preserve">        # arg → NUMBER</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve">    match('STRING')</t>
+          <t xml:space="preserve">        if lookahead in ['NUMBER']:</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr"/>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            match('NUMBER')</t>
+        </is>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="5" t="inlineStr">
-        <is>
-          <t># Parser for args</t>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        # arg → STRING</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>def parse_args():</t>
+          <t xml:space="preserve">        elif lookahead in ['STRING']:</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve">    """Parse non-terminal args"""</t>
+          <t xml:space="preserve">            match('STRING')</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve">    parse_arg()</t>
+          <t xml:space="preserve">        else:</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve">    match('(","')</t>
+          <t xml:space="preserve">            error('Unexpected token in arg')</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    match('arg)*')</t>
-        </is>
-      </c>
+      <c r="A52" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr"/>
+      <c r="A53" s="5" t="inlineStr">
+        <is>
+          <t># Parser for args</t>
+        </is>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="5" t="inlineStr">
-        <is>
-          <t># Parser for call_stmt</t>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>def parse_args():</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>def parse_call_stmt():</t>
+          <t xml:space="preserve">    """Parse non-terminal args"""</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t xml:space="preserve">    """Parse non-terminal call_stmt"""</t>
+          <t xml:space="preserve">    parse_arg()</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve">    match('ID')</t>
+          <t xml:space="preserve">    match('(","')</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t xml:space="preserve">    match('"("')</t>
+          <t xml:space="preserve">    match('arg)*')</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    match('args?')</t>
-        </is>
-      </c>
+      <c r="A59" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    match('")"')</t>
+      <c r="A60" s="5" t="inlineStr">
+        <is>
+          <t># Parser for call_stmt</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve">    match('";"')</t>
+          <t>def parse_call_stmt():</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr"/>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    """Parse non-terminal call_stmt"""</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="5" t="inlineStr">
-        <is>
-          <t># Parser for for_stmt</t>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    match('ID')</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>def parse_for_stmt():</t>
+          <t xml:space="preserve">    match('"("')</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t xml:space="preserve">    """Parse non-terminal for_stmt"""</t>
+          <t xml:space="preserve">    match('args?')</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t xml:space="preserve">    match('"for"')</t>
+          <t xml:space="preserve">    match('")"')</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t xml:space="preserve">    match('ID')</t>
+          <t xml:space="preserve">    match('";"')</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    match('"="')</t>
-        </is>
-      </c>
+      <c r="A68" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    match('NUMBER')</t>
+      <c r="A69" s="5" t="inlineStr">
+        <is>
+          <t># Parser for for_stmt</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t xml:space="preserve">    match('"to"')</t>
+          <t>def parse_for_stmt():</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t xml:space="preserve">    match('NUMBER')</t>
+          <t xml:space="preserve">    """Parse non-terminal for_stmt"""</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t xml:space="preserve">    match('";"')</t>
+          <t xml:space="preserve">    match('"for"')</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr"/>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    match('ID')</t>
+        </is>
+      </c>
     </row>
     <row r="74">
-      <c r="A74" s="5" t="inlineStr">
-        <is>
-          <t># Parser for program</t>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    match('"="')</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>def parse_program():</t>
+          <t xml:space="preserve">    match('NUMBER')</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t xml:space="preserve">    """Parse non-terminal program"""</t>
+          <t xml:space="preserve">    match('"to"')</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t xml:space="preserve">    parse_stmt_list()</t>
+          <t xml:space="preserve">    match('NUMBER')</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr"/>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    match('";"')</t>
+        </is>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" s="5" t="inlineStr">
-        <is>
-          <t># Parser for stmt</t>
-        </is>
-      </c>
+      <c r="A79" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>def parse_stmt():</t>
+      <c r="A80" s="5" t="inlineStr">
+        <is>
+          <t># Parser for program</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t xml:space="preserve">    """Parse non-terminal stmt"""</t>
+          <t>def parse_program():</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t xml:space="preserve">    if lookahead in ['"for"', 'ID']:</t>
+          <t xml:space="preserve">    """Parse non-terminal program"""</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t xml:space="preserve">        # stmt → for_stmt</t>
+          <t xml:space="preserve">    parse_stmt_list()</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        if lookahead in ['"for"']:</t>
-        </is>
-      </c>
+      <c r="A84" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            parse_for_stmt()</t>
+      <c r="A85" s="5" t="inlineStr">
+        <is>
+          <t># Parser for stmt</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t xml:space="preserve">        # stmt → call_stmt</t>
+          <t>def parse_stmt():</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t xml:space="preserve">        elif lookahead in ['ID']:</t>
+          <t xml:space="preserve">    """Parse non-terminal stmt"""</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t xml:space="preserve">            parse_call_stmt()</t>
+          <t xml:space="preserve">    if lookahead in ['"for"', 'ID']:</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t xml:space="preserve">        else:</t>
+          <t xml:space="preserve">        # stmt → for_stmt</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t xml:space="preserve">            error('Unexpected token in stmt')</t>
+          <t xml:space="preserve">        if lookahead in ['"for"']:</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr"/>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            parse_for_stmt()</t>
+        </is>
+      </c>
     </row>
     <row r="92">
-      <c r="A92" s="5" t="inlineStr">
-        <is>
-          <t># Parser for stmt_list</t>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        # stmt → call_stmt</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>def parse_stmt_list():</t>
+          <t xml:space="preserve">        elif lookahead in ['ID']:</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t xml:space="preserve">    """Parse non-terminal stmt_list"""</t>
+          <t xml:space="preserve">            parse_call_stmt()</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t xml:space="preserve">    if lookahead in ['"for"', 'ID']:</t>
+          <t xml:space="preserve">        else:</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t xml:space="preserve">        # stmt_list → stmt</t>
+          <t xml:space="preserve">            error('Unexpected token in stmt')</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        if lookahead in ['"for"', 'ID']:</t>
-        </is>
-      </c>
+      <c r="A97" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            parse_stmt()</t>
+      <c r="A98" s="5" t="inlineStr">
+        <is>
+          <t># Parser for stmt_list</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t xml:space="preserve">        # stmt_list → stmt stmt_list</t>
+          <t>def parse_stmt_list():</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t xml:space="preserve">        elif lookahead in ['"for"', 'ID']:</t>
+          <t xml:space="preserve">    """Parse non-terminal stmt_list"""</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t xml:space="preserve">            parse_stmt()</t>
+          <t xml:space="preserve">    if lookahead in ['ID', '"for"']:</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t xml:space="preserve">            parse_stmt_list()</t>
+          <t xml:space="preserve">        # stmt_list → stmt</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t xml:space="preserve">        else:</t>
+          <t xml:space="preserve">        if lookahead in ['ID', '"for"']:</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
+          <t xml:space="preserve">            parse_stmt()</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        # stmt_list → stmt stmt_list</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        elif lookahead in ['ID', '"for"']:</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            parse_stmt()</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            parse_stmt_list()</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        else:</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
           <t xml:space="preserve">            error('Unexpected token in stmt_list')</t>
         </is>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="inlineStr"/>
+    <row r="111">
+      <c r="A111" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="103">
+  <mergeCells count="109">
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A64:B64"/>
     <mergeCell ref="A98:B98"/>
     <mergeCell ref="A73:B73"/>
     <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A107:B107"/>
     <mergeCell ref="A88:B88"/>
     <mergeCell ref="A70:B70"/>
     <mergeCell ref="A54:B54"/>
@@ -2417,10 +2475,12 @@
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A109:B109"/>
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A68:B68"/>
     <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A111:B111"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A48:B48"/>
@@ -2468,6 +2528,7 @@
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A106:B106"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A96:B96"/>
@@ -2477,9 +2538,11 @@
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A82:B82"/>
     <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A110:B110"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A108:B108"/>
     <mergeCell ref="A84:B84"/>
     <mergeCell ref="A66:B66"/>
     <mergeCell ref="A18:B18"/>

--- a/ParserCodes/RD_analysis.xlsx
+++ b/ParserCodes/RD_analysis.xlsx
@@ -1996,7 +1996,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve">    if lookahead in ['STRING', 'NUMBER']:</t>
+          <t xml:space="preserve">    if lookahead in ['NUMBER', 'STRING']:</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t xml:space="preserve">    if lookahead in ['"for"', 'ID']:</t>
+          <t xml:space="preserve">    if lookahead in ['ID', '"for"']:</t>
         </is>
       </c>
     </row>
